--- a/docs/data/quiz/e4v2/lizards.xlsx
+++ b/docs/data/quiz/e4v2/lizards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d14353b491619df/Desktop/Desktop/BYU-I/Courses/Math 221B/Exams/Exam 4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\quiz\e4v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{5254065A-4EE6-4C9D-9C4B-D889463D9A06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{ABF0BD27-9EF7-45FC-949B-DD3CE6068B65}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9467D08E-124E-4FA0-B4FF-BE36AFDB6264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F89F93B2-4C8A-4EE1-B5A6-A4ADC8222829}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F89F93B2-4C8A-4EE1-B5A6-A4ADC8222829}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,21 +31,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Bite Force (N)</t>
-  </si>
-  <si>
-    <t>Territory area (square meters)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Data from male lizards in the species Crotaphytus collaris</t>
   </si>
   <si>
-    <t xml:space="preserve">Lizards use their jas as weapons during territorial interactions. </t>
-  </si>
-  <si>
     <t>Data from Lappin and Husak (2005)</t>
+  </si>
+  <si>
+    <t>bite_force</t>
+  </si>
+  <si>
+    <t>bite_force = bite force in Newtons</t>
+  </si>
+  <si>
+    <t>territory_area</t>
+  </si>
+  <si>
+    <t>territory_area = territory area (square meters)</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizards use their jaws as weapons during territorial interactions. </t>
   </si>
 </sst>
 </file>
@@ -400,49 +409,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834244F4-AB3F-42C2-B2B6-5B4174478BEB}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>28.2</v>
       </c>
       <c r="B2" s="1">
         <v>437</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>33.9</v>
       </c>
       <c r="B3" s="1">
         <v>589</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>29.5</v>
       </c>
@@ -450,18 +460,18 @@
         <v>871</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>39.799999999999997</v>
       </c>
       <c r="B5" s="1">
         <v>977</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>41.7</v>
       </c>
@@ -469,23 +479,29 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44.7</v>
       </c>
       <c r="B7" s="1">
         <v>2138</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>46.8</v>
       </c>
       <c r="B8" s="1">
         <v>2455</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>47.9</v>
       </c>
@@ -493,7 +509,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>36.299999999999997</v>
       </c>
@@ -501,7 +517,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>35.5</v>
       </c>
@@ -509,7 +525,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>33.9</v>
       </c>
